--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H2">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N2">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q2">
-        <v>3961.753789450304</v>
+        <v>6731.528880932548</v>
       </c>
       <c r="R2">
-        <v>35655.78410505273</v>
+        <v>60583.75992839294</v>
       </c>
       <c r="S2">
-        <v>0.06912769354935887</v>
+        <v>0.097105097757053</v>
       </c>
       <c r="T2">
-        <v>0.06912769354935885</v>
+        <v>0.09710509775705299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H3">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>22.867725</v>
       </c>
       <c r="O3">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P3">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q3">
-        <v>1365.645487496092</v>
+        <v>711.9124019439416</v>
       </c>
       <c r="R3">
-        <v>12290.80938746483</v>
+        <v>6407.211617495474</v>
       </c>
       <c r="S3">
-        <v>0.02382882121753286</v>
+        <v>0.01026963184857463</v>
       </c>
       <c r="T3">
-        <v>0.02382882121753286</v>
+        <v>0.01026963184857463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H4">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>243.606445</v>
       </c>
       <c r="O4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q4">
-        <v>14548.01657529181</v>
+        <v>7583.896053891444</v>
       </c>
       <c r="R4">
-        <v>130932.1491776263</v>
+        <v>68255.064485023</v>
       </c>
       <c r="S4">
-        <v>0.2538448588717834</v>
+        <v>0.109400847967607</v>
       </c>
       <c r="T4">
-        <v>0.2538448588717834</v>
+        <v>0.1094008479676069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N5">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q5">
-        <v>5302.902857707314</v>
+        <v>17284.28099928929</v>
       </c>
       <c r="R5">
-        <v>47726.12571936583</v>
+        <v>155558.5289936036</v>
       </c>
       <c r="S5">
-        <v>0.09252908261128298</v>
+        <v>0.249332926558557</v>
       </c>
       <c r="T5">
-        <v>0.09252908261128298</v>
+        <v>0.249332926558557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>22.867725</v>
       </c>
       <c r="O6">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P6">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q6">
         <v>1827.9493737199</v>
@@ -818,10 +818,10 @@
         <v>16451.5443634791</v>
       </c>
       <c r="S6">
-        <v>0.03189545106683283</v>
+        <v>0.02636892833258177</v>
       </c>
       <c r="T6">
-        <v>0.03189545106683283</v>
+        <v>0.02636892833258176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>243.606445</v>
       </c>
       <c r="O7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q7">
         <v>19472.87054448491</v>
@@ -880,10 +880,10 @@
         <v>175255.8349003642</v>
       </c>
       <c r="S7">
-        <v>0.3397774569207301</v>
+        <v>0.2809042390338358</v>
       </c>
       <c r="T7">
-        <v>0.3397774569207301</v>
+        <v>0.2809042390338358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>292.907699</v>
       </c>
       <c r="I8">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J8">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N8">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O8">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P8">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q8">
-        <v>2159.040288881539</v>
+        <v>7037.175683423567</v>
       </c>
       <c r="R8">
-        <v>19431.36259993385</v>
+        <v>63334.5811508121</v>
       </c>
       <c r="S8">
-        <v>0.03767257719244354</v>
+        <v>0.1015141797293656</v>
       </c>
       <c r="T8">
-        <v>0.03767257719244354</v>
+        <v>0.1015141797293656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>292.907699</v>
       </c>
       <c r="I9">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J9">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>22.867725</v>
       </c>
       <c r="O9">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P9">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q9">
         <v>744.2369679016416</v>
@@ -1004,10 +1004,10 @@
         <v>6698.132711114775</v>
       </c>
       <c r="S9">
-        <v>0.01298601270533449</v>
+        <v>0.01073592712752201</v>
       </c>
       <c r="T9">
-        <v>0.01298601270533449</v>
+        <v>0.01073592712752201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>292.907699</v>
       </c>
       <c r="I10">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J10">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>243.606445</v>
       </c>
       <c r="O10">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P10">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q10">
         <v>7928.244807391117</v>
@@ -1066,10 +1066,10 @@
         <v>71354.20326652005</v>
       </c>
       <c r="S10">
-        <v>0.1383380458647009</v>
+        <v>0.1143682216449034</v>
       </c>
       <c r="T10">
-        <v>0.1383380458647009</v>
+        <v>0.1143682216449034</v>
       </c>
     </row>
   </sheetData>
